--- a/rpa-master/rpa-master/6.도서 판매지수 취합/도서목록.xlsx
+++ b/rpa-master/rpa-master/6.도서 판매지수 취합/도서목록.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\big\RPA\rpa-master\rpa-master\6.도서 판매지수 취합\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-28335" yWindow="1680" windowWidth="18540" windowHeight="9060" activeTab="2"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="예스24테스트" sheetId="16" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="15" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>도서명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +73,10 @@
   </si>
   <si>
     <t>검색용 키워드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출근 후 10분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -156,9 +165,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="177" formatCode="m\/dd&quot;(&quot;aaa&quot;)&quot;"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="m\/dd&quot;(&quot;aaa&quot;)&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -236,13 +245,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" applyNumberFormat="0">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" applyNumberFormat="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -253,7 +262,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -262,10 +271,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -583,7 +592,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -599,46 +608,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="7">
-        <v>43917</v>
+        <v>44643</v>
       </c>
       <c r="G1" s="7">
-        <v>43918</v>
+        <v>44644</v>
       </c>
       <c r="H1" s="7">
-        <v>43919</v>
+        <v>44645</v>
       </c>
       <c r="I1" s="7">
-        <v>43920</v>
+        <v>44646</v>
       </c>
       <c r="J1" s="7">
-        <v>43921</v>
+        <v>44647</v>
       </c>
       <c r="K1" s="7">
-        <v>43922</v>
+        <v>44648</v>
       </c>
       <c r="L1" s="7">
-        <v>44356</v>
+        <v>44649</v>
       </c>
       <c r="M1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -670,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="L2">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N2">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -711,16 +720,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4353</v>
+        <v>3357</v>
       </c>
       <c r="L3">
-        <v>4353</v>
+        <v>3357</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N3">
-        <v>3047</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -752,16 +761,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1392</v>
+        <v>557</v>
       </c>
       <c r="L4">
-        <v>1392</v>
+        <v>557</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N4">
-        <v>449</v>
+        <v>557</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -793,16 +802,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="L5">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N5">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -815,52 +824,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="7">
-        <v>43917</v>
+        <v>44643</v>
       </c>
       <c r="G1" s="7">
-        <v>43918</v>
+        <v>44644</v>
       </c>
       <c r="H1" s="7">
-        <v>43919</v>
+        <v>44645</v>
       </c>
       <c r="I1" s="7">
-        <v>43920</v>
+        <v>44646</v>
       </c>
       <c r="J1" s="7">
-        <v>43921</v>
+        <v>44647</v>
       </c>
       <c r="K1" s="7">
-        <v>43922</v>
+        <v>44648</v>
       </c>
       <c r="L1" s="7">
-        <v>44356</v>
+        <v>44649</v>
       </c>
       <c r="M1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -892,16 +903,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>954</v>
+        <v>36</v>
       </c>
       <c r="L2">
-        <v>954</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N2">
-        <v>162</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -933,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14748</v>
+        <v>11010</v>
       </c>
       <c r="L3">
-        <v>14748</v>
+        <v>11010</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N3">
-        <v>12249</v>
+        <v>11166</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -974,16 +985,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2202</v>
+        <v>828</v>
       </c>
       <c r="L4">
-        <v>2202</v>
+        <v>828</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N4">
-        <v>3198</v>
+        <v>810</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -1015,16 +1026,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="L5">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N5">
-        <v>90</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1038,13 +1049,13 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.25" customWidth="1"/>
@@ -1070,25 +1081,25 @@
         <v>8</v>
       </c>
       <c r="F1" s="6">
-        <v>43917</v>
+        <v>44643</v>
       </c>
       <c r="G1" s="6">
-        <v>43918</v>
+        <v>44644</v>
       </c>
       <c r="H1" s="6">
-        <v>43919</v>
+        <v>44645</v>
       </c>
       <c r="I1" s="6">
-        <v>43920</v>
+        <v>44646</v>
       </c>
       <c r="J1" s="6">
-        <v>43921</v>
+        <v>44647</v>
       </c>
       <c r="K1" s="6">
-        <v>43922</v>
+        <v>44648</v>
       </c>
       <c r="L1" s="6">
-        <v>44356</v>
+        <v>44649</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -1102,7 +1113,7 @@
         <v>9788955335767</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
@@ -1124,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="K2" s="5">
-        <v>954</v>
+        <v>36</v>
       </c>
       <c r="L2" s="5">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="M2" s="3" t="str">
         <f>B2&amp;D2</f>
@@ -1164,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="5">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="L3" s="5">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M3" s="3" t="str">
         <f t="shared" ref="M3:M9" si="0">B3&amp;D3</f>
@@ -1204,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="K4" s="5">
-        <v>14748</v>
+        <v>11010</v>
       </c>
       <c r="L4" s="5">
-        <v>12249</v>
+        <v>11166</v>
       </c>
       <c r="M4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1244,10 +1255,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="5">
-        <v>4353</v>
+        <v>3357</v>
       </c>
       <c r="L5" s="5">
-        <v>3047</v>
+        <v>3302</v>
       </c>
       <c r="M5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1284,10 +1295,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="5">
-        <v>2202</v>
+        <v>828</v>
       </c>
       <c r="L6" s="5">
-        <v>3198</v>
+        <v>810</v>
       </c>
       <c r="M6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1324,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="K7" s="5">
-        <v>1392</v>
+        <v>557</v>
       </c>
       <c r="L7" s="5">
-        <v>449</v>
+        <v>557</v>
       </c>
       <c r="M7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1364,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="L8" s="5">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1404,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="K9" s="5">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="L9" s="5">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="M9" s="3" t="str">
         <f t="shared" si="0"/>
